--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H2">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.574474333333334</v>
+        <v>5.392534</v>
       </c>
       <c r="N2">
-        <v>16.723423</v>
+        <v>16.177602</v>
       </c>
       <c r="O2">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="P2">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="Q2">
-        <v>37.99136373208367</v>
+        <v>39.29383142314</v>
       </c>
       <c r="R2">
-        <v>341.922273588753</v>
+        <v>353.64448280826</v>
       </c>
       <c r="S2">
-        <v>0.06574701354753273</v>
+        <v>0.0384569587236783</v>
       </c>
       <c r="T2">
-        <v>0.06574701354753275</v>
+        <v>0.03845695872367831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H3">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.262099</v>
       </c>
       <c r="O3">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744348</v>
       </c>
       <c r="P3">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744349</v>
       </c>
       <c r="Q3">
-        <v>61.93255526748766</v>
+        <v>66.21700313476333</v>
       </c>
       <c r="R3">
-        <v>557.392997407389</v>
+        <v>595.95302821287</v>
       </c>
       <c r="S3">
-        <v>0.1071791099398238</v>
+        <v>0.06480672574117174</v>
       </c>
       <c r="T3">
-        <v>0.1071791099398239</v>
+        <v>0.06480672574117177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H4">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263619666666666</v>
+        <v>5.004453333333333</v>
       </c>
       <c r="N4">
-        <v>3.790858999999999</v>
+        <v>15.01336</v>
       </c>
       <c r="O4">
-        <v>0.06266099938473897</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="P4">
-        <v>0.06266099938473899</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="Q4">
-        <v>8.611867506194331</v>
+        <v>36.46600014853333</v>
       </c>
       <c r="R4">
-        <v>77.50680755574898</v>
+        <v>328.1940013367999</v>
       </c>
       <c r="S4">
-        <v>0.01490350737583964</v>
+        <v>0.03568935407260748</v>
       </c>
       <c r="T4">
-        <v>0.01490350737583965</v>
+        <v>0.03568935407260748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H5">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.715525</v>
+        <v>0.8122250000000001</v>
       </c>
       <c r="N5">
-        <v>5.146575</v>
+        <v>2.436675</v>
       </c>
       <c r="O5">
-        <v>0.08507030541323565</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="P5">
-        <v>0.08507030541323567</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="Q5">
-        <v>11.691709454425</v>
+        <v>5.91844802975</v>
       </c>
       <c r="R5">
-        <v>105.225385089825</v>
+        <v>53.26603226775</v>
       </c>
       <c r="S5">
-        <v>0.02023341371251527</v>
+        <v>0.005792398026482469</v>
       </c>
       <c r="T5">
-        <v>0.02023341371251528</v>
+        <v>0.00579239802648247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H6">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I6">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J6">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.524982</v>
+        <v>2.598118333333333</v>
       </c>
       <c r="N6">
-        <v>7.574946000000001</v>
+        <v>7.794354999999999</v>
       </c>
       <c r="O6">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="P6">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="Q6">
-        <v>17.208350750734</v>
+        <v>18.93173484068333</v>
       </c>
       <c r="R6">
-        <v>154.875156756606</v>
+        <v>170.38561356615</v>
       </c>
       <c r="S6">
-        <v>0.02978039108882367</v>
+        <v>0.01852853027987063</v>
       </c>
       <c r="T6">
-        <v>0.02978039108882368</v>
+        <v>0.01852853027987063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7.981712</v>
       </c>
       <c r="I7">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J7">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.574474333333334</v>
+        <v>5.392534</v>
       </c>
       <c r="N7">
-        <v>16.723423</v>
+        <v>16.177602</v>
       </c>
       <c r="O7">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="P7">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="Q7">
-        <v>14.83128289335289</v>
+        <v>14.34721777940267</v>
       </c>
       <c r="R7">
-        <v>133.481546040176</v>
+        <v>129.124960014624</v>
       </c>
       <c r="S7">
-        <v>0.02566669004548214</v>
+        <v>0.0140416534086617</v>
       </c>
       <c r="T7">
-        <v>0.02566669004548214</v>
+        <v>0.0140416534086617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7.981712</v>
       </c>
       <c r="I8">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J8">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.262099</v>
       </c>
       <c r="O8">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744348</v>
       </c>
       <c r="P8">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744349</v>
       </c>
       <c r="Q8">
         <v>24.17758030372089</v>
@@ -948,10 +948,10 @@
         <v>217.598222733488</v>
       </c>
       <c r="S8">
-        <v>0.04184118556483613</v>
+        <v>0.02366265070377072</v>
       </c>
       <c r="T8">
-        <v>0.04184118556483614</v>
+        <v>0.02366265070377073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7.981712</v>
       </c>
       <c r="I9">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J9">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263619666666666</v>
+        <v>5.004453333333333</v>
       </c>
       <c r="N9">
-        <v>3.790858999999999</v>
+        <v>15.01336</v>
       </c>
       <c r="O9">
-        <v>0.06266099938473897</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="P9">
-        <v>0.06266099938473899</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="Q9">
-        <v>3.361949418956443</v>
+        <v>13.31470174136889</v>
       </c>
       <c r="R9">
-        <v>30.25754477060799</v>
+        <v>119.83231567232</v>
       </c>
       <c r="S9">
-        <v>0.005818115284121339</v>
+        <v>0.01303112770480231</v>
       </c>
       <c r="T9">
-        <v>0.005818115284121341</v>
+        <v>0.01303112770480231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7.981712</v>
       </c>
       <c r="I10">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J10">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.715525</v>
+        <v>0.8122250000000001</v>
       </c>
       <c r="N10">
-        <v>5.146575</v>
+        <v>2.436675</v>
       </c>
       <c r="O10">
-        <v>0.08507030541323565</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="P10">
-        <v>0.08507030541323567</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="Q10">
-        <v>4.564275492933334</v>
+        <v>2.160982009733333</v>
       </c>
       <c r="R10">
-        <v>41.0784794364</v>
+        <v>19.4488380876</v>
       </c>
       <c r="S10">
-        <v>0.007898834187284938</v>
+        <v>0.002114957817577088</v>
       </c>
       <c r="T10">
-        <v>0.00789883418728494</v>
+        <v>0.002114957817577089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7.981712</v>
       </c>
       <c r="I11">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J11">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.524982</v>
+        <v>2.598118333333333</v>
       </c>
       <c r="N11">
-        <v>7.574946000000001</v>
+        <v>7.794354999999999</v>
       </c>
       <c r="O11">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="P11">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="Q11">
-        <v>6.717893043061333</v>
+        <v>6.912477426195555</v>
       </c>
       <c r="R11">
-        <v>60.461037387552</v>
+        <v>62.21229683575999</v>
       </c>
       <c r="S11">
-        <v>0.01162583707254578</v>
+        <v>0.006765256770074411</v>
       </c>
       <c r="T11">
-        <v>0.01162583707254578</v>
+        <v>0.006765256770074412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H12">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.574474333333334</v>
+        <v>5.392534</v>
       </c>
       <c r="N12">
-        <v>16.723423</v>
+        <v>16.177602</v>
       </c>
       <c r="O12">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="P12">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="Q12">
-        <v>29.35212331108245</v>
+        <v>102.5040760095893</v>
       </c>
       <c r="R12">
-        <v>264.169109799742</v>
+        <v>922.536684086304</v>
       </c>
       <c r="S12">
-        <v>0.05079613521093119</v>
+        <v>0.1003209632998052</v>
       </c>
       <c r="T12">
-        <v>0.05079613521093119</v>
+        <v>0.1003209632998052</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H13">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.262099</v>
       </c>
       <c r="O13">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744348</v>
       </c>
       <c r="P13">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744349</v>
       </c>
       <c r="Q13">
-        <v>47.84908517633845</v>
+        <v>172.7373604615165</v>
       </c>
       <c r="R13">
-        <v>430.641766587046</v>
+        <v>1554.636244153648</v>
       </c>
       <c r="S13">
-        <v>0.08280656818510132</v>
+        <v>0.1690584323470596</v>
       </c>
       <c r="T13">
-        <v>0.08280656818510133</v>
+        <v>0.1690584323470597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H14">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I14">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J14">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263619666666666</v>
+        <v>5.004453333333333</v>
       </c>
       <c r="N14">
-        <v>3.790858999999999</v>
+        <v>15.01336</v>
       </c>
       <c r="O14">
-        <v>0.06266099938473897</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="P14">
-        <v>0.06266099938473899</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="Q14">
-        <v>6.653527858676221</v>
+        <v>95.12723793052444</v>
       </c>
       <c r="R14">
-        <v>59.88175072808599</v>
+        <v>856.14514137472</v>
       </c>
       <c r="S14">
-        <v>0.01151444810847488</v>
+        <v>0.09310123574351524</v>
       </c>
       <c r="T14">
-        <v>0.01151444810847488</v>
+        <v>0.09310123574351525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H15">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I15">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J15">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.715525</v>
+        <v>0.8122250000000001</v>
       </c>
       <c r="N15">
-        <v>5.146575</v>
+        <v>2.436675</v>
       </c>
       <c r="O15">
-        <v>0.08507030541323565</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="P15">
-        <v>0.08507030541323567</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="Q15">
-        <v>9.033013398616669</v>
+        <v>15.43919299106667</v>
       </c>
       <c r="R15">
-        <v>81.29712058755001</v>
+        <v>138.9527369196</v>
       </c>
       <c r="S15">
-        <v>0.0156323331397644</v>
+        <v>0.01511037193575122</v>
       </c>
       <c r="T15">
-        <v>0.0156323331397644</v>
+        <v>0.01511037193575123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H16">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I16">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J16">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.524982</v>
+        <v>2.598118333333333</v>
       </c>
       <c r="N16">
-        <v>7.574946000000001</v>
+        <v>7.794354999999999</v>
       </c>
       <c r="O16">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="P16">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="Q16">
-        <v>13.29516983854267</v>
+        <v>49.38637737321778</v>
       </c>
       <c r="R16">
-        <v>119.656528546884</v>
+        <v>444.47739635896</v>
       </c>
       <c r="S16">
-        <v>0.02300832677804671</v>
+        <v>0.04833455551080149</v>
       </c>
       <c r="T16">
-        <v>0.02300832677804672</v>
+        <v>0.04833455551080151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H17">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.574474333333334</v>
+        <v>5.392534</v>
       </c>
       <c r="N17">
-        <v>16.723423</v>
+        <v>16.177602</v>
       </c>
       <c r="O17">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="P17">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="Q17">
-        <v>1.374094916059889</v>
+        <v>0.6182791882586667</v>
       </c>
       <c r="R17">
-        <v>12.366854244539</v>
+        <v>5.564512694328</v>
       </c>
       <c r="S17">
-        <v>0.00237797826103018</v>
+        <v>0.0006051111933200438</v>
       </c>
       <c r="T17">
-        <v>0.00237797826103018</v>
+        <v>0.0006051111933200438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H18">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I18">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J18">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.262099</v>
       </c>
       <c r="O18">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744348</v>
       </c>
       <c r="P18">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744349</v>
       </c>
       <c r="Q18">
-        <v>2.240014597311889</v>
+        <v>1.041908957826222</v>
       </c>
       <c r="R18">
-        <v>20.160131375807</v>
+        <v>9.377180620435999</v>
       </c>
       <c r="S18">
-        <v>0.003876519703654725</v>
+        <v>0.001019718574996416</v>
       </c>
       <c r="T18">
-        <v>0.003876519703654726</v>
+        <v>0.001019718574996416</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H19">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I19">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J19">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.263619666666666</v>
+        <v>5.004453333333333</v>
       </c>
       <c r="N19">
-        <v>3.790858999999999</v>
+        <v>15.01336</v>
       </c>
       <c r="O19">
-        <v>0.06266099938473897</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="P19">
-        <v>0.06266099938473899</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="Q19">
-        <v>0.3114792993874444</v>
+        <v>0.5737839287822222</v>
       </c>
       <c r="R19">
-        <v>2.803313694487</v>
+        <v>5.16405535904</v>
       </c>
       <c r="S19">
-        <v>0.0005390391843004034</v>
+        <v>0.0005615635855884828</v>
       </c>
       <c r="T19">
-        <v>0.0005390391843004036</v>
+        <v>0.0005615635855884828</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H20">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I20">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J20">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.715525</v>
+        <v>0.8122250000000001</v>
       </c>
       <c r="N20">
-        <v>5.146575</v>
+        <v>2.436675</v>
       </c>
       <c r="O20">
-        <v>0.08507030541323565</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="P20">
-        <v>0.08507030541323567</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="Q20">
-        <v>0.4228729096083335</v>
+        <v>0.09312538663333335</v>
       </c>
       <c r="R20">
-        <v>3.805856186475001</v>
+        <v>0.8381284797</v>
       </c>
       <c r="S20">
-        <v>0.0007318145016580278</v>
+        <v>9.114201950221778E-05</v>
       </c>
       <c r="T20">
-        <v>0.000731814501658028</v>
+        <v>9.114201950221778E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H21">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I21">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J21">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.524982</v>
+        <v>2.598118333333333</v>
       </c>
       <c r="N21">
-        <v>7.574946000000001</v>
+        <v>7.794354999999999</v>
       </c>
       <c r="O21">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="P21">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="Q21">
-        <v>0.6224021713753334</v>
+        <v>0.2978863914688889</v>
       </c>
       <c r="R21">
-        <v>5.601619542378001</v>
+        <v>2.68097752322</v>
       </c>
       <c r="S21">
-        <v>0.001077115427653628</v>
+        <v>0.0002915420626128674</v>
       </c>
       <c r="T21">
-        <v>0.001077115427653628</v>
+        <v>0.0002915420626128674</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H22">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I22">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J22">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.574474333333334</v>
+        <v>5.392534</v>
       </c>
       <c r="N22">
-        <v>16.723423</v>
+        <v>16.177602</v>
       </c>
       <c r="O22">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="P22">
-        <v>0.2764298008218533</v>
+        <v>0.2355363777035355</v>
       </c>
       <c r="Q22">
-        <v>76.18379132073822</v>
+        <v>83.89854669147468</v>
       </c>
       <c r="R22">
-        <v>685.654121886644</v>
+        <v>755.086920223272</v>
       </c>
       <c r="S22">
-        <v>0.1318419837568771</v>
+        <v>0.08211169107807018</v>
       </c>
       <c r="T22">
-        <v>0.1318419837568771</v>
+        <v>0.08211169107807019</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H23">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I23">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J23">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.262099</v>
       </c>
       <c r="O23">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744348</v>
       </c>
       <c r="P23">
-        <v>0.4506288333767343</v>
+        <v>0.3969201397744349</v>
       </c>
       <c r="Q23">
-        <v>124.1928797221302</v>
+        <v>141.3837777600849</v>
       </c>
       <c r="R23">
-        <v>1117.735917499172</v>
+        <v>1272.453999840764</v>
       </c>
       <c r="S23">
-        <v>0.2149254499833183</v>
+        <v>0.1383726124074363</v>
       </c>
       <c r="T23">
-        <v>0.2149254499833183</v>
+        <v>0.1383726124074363</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H24">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I24">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J24">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.263619666666666</v>
+        <v>5.004453333333333</v>
       </c>
       <c r="N24">
-        <v>3.790858999999999</v>
+        <v>15.01336</v>
       </c>
       <c r="O24">
-        <v>0.06266099938473897</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="P24">
-        <v>0.06266099938473899</v>
+        <v>0.2185856983970276</v>
       </c>
       <c r="Q24">
-        <v>17.26931208893911</v>
+        <v>77.86067953432888</v>
       </c>
       <c r="R24">
-        <v>155.423808800452</v>
+        <v>700.7461158089599</v>
       </c>
       <c r="S24">
-        <v>0.02988588943200271</v>
+        <v>0.07620241729051411</v>
       </c>
       <c r="T24">
-        <v>0.02988588943200272</v>
+        <v>0.07620241729051412</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H25">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I25">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J25">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.715525</v>
+        <v>0.8122250000000001</v>
       </c>
       <c r="N25">
-        <v>5.146575</v>
+        <v>2.436675</v>
       </c>
       <c r="O25">
-        <v>0.08507030541323565</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="P25">
-        <v>0.08507030541323567</v>
+        <v>0.03547655599023652</v>
       </c>
       <c r="Q25">
-        <v>23.44529560823334</v>
+        <v>12.63682289003333</v>
       </c>
       <c r="R25">
-        <v>211.0076604741</v>
+        <v>113.7314060103</v>
       </c>
       <c r="S25">
-        <v>0.04057390987201302</v>
+        <v>0.01236768619092352</v>
       </c>
       <c r="T25">
-        <v>0.04057390987201303</v>
+        <v>0.01236768619092352</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H26">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I26">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J26">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.524982</v>
+        <v>2.598118333333333</v>
       </c>
       <c r="N26">
-        <v>7.574946000000001</v>
+        <v>7.794354999999999</v>
       </c>
       <c r="O26">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="P26">
-        <v>0.1252100610034378</v>
+        <v>0.1134812281347656</v>
       </c>
       <c r="Q26">
-        <v>34.50777423556534</v>
+        <v>40.42224903897556</v>
       </c>
       <c r="R26">
-        <v>310.569968120088</v>
+        <v>363.80024135078</v>
       </c>
       <c r="S26">
-        <v>0.05971839063636797</v>
+        <v>0.03956134351140618</v>
       </c>
       <c r="T26">
-        <v>0.05971839063636799</v>
+        <v>0.03956134351140619</v>
       </c>
     </row>
   </sheetData>
